--- a/策划文档/养成系统.xlsx
+++ b/策划文档/养成系统.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t>养成系统：通过功法和法宝改变角色数值和机制</t>
   </si>
@@ -181,19 +181,74 @@
     <t>角色每隔一段时间会朝面向方向瞬移一段距离</t>
   </si>
   <si>
-    <t>当雷电击杀怪物后，溢出的伤害将会自动弹射到周围的怪物身上，无限循环，直至没有怪物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>备注</t>
   </si>
   <si>
     <t>当雷电攻击怪物后会发生爆炸伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电会将周围的怪物吸附牵引</t>
+  </si>
+  <si>
+    <t>蛊虫派</t>
+  </si>
+  <si>
+    <t>角色同时存在4只以上蛊虫时，每隔2秒会自动为一只处于充能状态的蛊虫完全充能</t>
+  </si>
+  <si>
+    <t>蛊虫附身在角色身上，需要通过雷击来进行充能才能发挥效果，蛊虫必须完成自身效果后才能进行第二次充能。</t>
+  </si>
+  <si>
+    <t>需要5道闪电充能，持续2秒回复生命值，每秒给角色回复10%已损失生命值，最小值为1</t>
+  </si>
+  <si>
+    <t>需要10道闪电充能，在自身周围形成一个环形造成伤害持续10秒</t>
+  </si>
+  <si>
+    <t>需要8道闪电充能，会追踪3名血量最高的敌人持续叮咬8秒，敌人死亡时自动切换目标</t>
+  </si>
+  <si>
+    <t>需要6道闪电充能，在身体后方召唤一道墙壁阻挡怪物和子弹，持续5秒</t>
+  </si>
+  <si>
+    <t>需要3道闪电充能，自动攻击距离最近的怪物一次</t>
+  </si>
+  <si>
+    <t>符箓阵法派</t>
+  </si>
+  <si>
+    <t>召唤一个火焰符箓，每8轮雷劫再次召唤，对一定范围内敌人每秒喷射一个火球。过载状态：攻速加倍，持续3秒</t>
+  </si>
+  <si>
+    <t>每轮开始后，在地图上随机地点召唤符箓，符箓经过一定轮次雷劫后，可以再次召唤，符箓被雷电击中后会进入过载状态，获得效果强化</t>
+  </si>
+  <si>
+    <t>召唤一个寒冰剑气符箓，每10轮雷劫再次召唤，剑气围绕符箓旋转，对扫过的敌人造成伤害并减少20%移动速度。过载状态：剑气增长，速度加倍，持续3秒。</t>
+  </si>
+  <si>
+    <t>召唤一个草木符箓，每8轮雷劫再次召唤，每4秒生成一个治疗法球恢复。过载状态:生出速度翻倍，持续4秒</t>
+  </si>
+  <si>
+    <t>召唤一个盾牌符箓，每8轮雷劫再次召唤，每5秒生成一个护甲恢复法球。过载状态：每秒攻击一个敌人，持续3秒。</t>
+  </si>
+  <si>
+    <t>召唤一个虚空符箓，每12轮雷劫再次召唤，形成黑洞不断将敌人吸引上限8个。过载状态：引爆黑洞，造成大量伤害并击退。</t>
+  </si>
+  <si>
+    <t>每轮雷劫只会生成一道雷击，雷击道数会转化成为雷电伤害，并将自动串联所有符箓。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,13 +265,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,18 +418,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -317,17 +696,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -348,38 +716,294 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -387,113 +1011,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -747,27 +1427,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="9" style="13"/>
+    <col min="1" max="1" width="9" style="21"/>
+    <col min="2" max="2" width="9" style="22"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="57" customHeight="1">
+    <row r="1" ht="57" customHeight="1" spans="1:4">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -775,373 +1455,373 @@
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="1:4" ht="32.1" customHeight="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" ht="32.1" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.600000000000001" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26" t="s">
+    <row r="3" ht="18.6" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1">
-      <c r="A4" s="25"/>
+    <row r="4" ht="18.6" customHeight="1" spans="1:4">
+      <c r="A4" s="5"/>
       <c r="B4" s="27"/>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1">
-      <c r="A5" s="25"/>
+    <row r="5" ht="18.6" customHeight="1" spans="1:4">
+      <c r="A5" s="5"/>
       <c r="B5" s="27"/>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="25"/>
+    <row r="6" ht="18.6" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
       <c r="B6" s="27"/>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1">
-      <c r="A7" s="25"/>
+    <row r="7" ht="18.6" customHeight="1" spans="1:4">
+      <c r="A7" s="5"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1">
-      <c r="A8" s="25"/>
+    <row r="8" ht="18.6" customHeight="1" spans="1:4">
+      <c r="A8" s="5"/>
       <c r="B8" s="27"/>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="16" t="s">
+    <row r="9" ht="18.6" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="29" t="s">
+    <row r="10" ht="18.6" customHeight="1" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="18" t="s">
+    <row r="11" ht="18.6" customHeight="1" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="18" t="s">
+    <row r="12" ht="18.6" customHeight="1" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="19" t="s">
+    <row r="13" ht="18.6" customHeight="1" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="30" t="s">
+    <row r="14" ht="18.6" customHeight="1" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="18" t="s">
+    <row r="15" ht="18.6" customHeight="1" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="19" t="s">
+    <row r="16" ht="18.6" customHeight="1" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="11" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A18" s="24" t="s">
+    <row r="18" s="20" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="11" customFormat="1" ht="33" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="31" t="s">
+    <row r="19" s="20" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="37">
         <v>1</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="11" customFormat="1" ht="27" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="5">
+    <row r="20" s="20" customFormat="1" ht="27" customHeight="1" spans="1:4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="38">
         <v>2</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="11" customFormat="1" ht="33" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="5">
+    <row r="21" s="20" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="38">
         <v>3</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="11" customFormat="1" ht="33" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="7">
+    <row r="22" s="20" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="39">
         <v>4</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="11" customFormat="1" ht="27" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="31" t="s">
+    <row r="23" s="20" customFormat="1" ht="27" customHeight="1" spans="1:4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="37">
         <v>5</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="11" customFormat="1" ht="27" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="5">
+    <row r="24" s="20" customFormat="1" ht="27" customHeight="1" spans="1:4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="38">
         <v>6</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="11" customFormat="1" ht="40.5">
-      <c r="A25" s="25"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="5">
+    <row r="25" s="20" customFormat="1" ht="40.5" spans="1:4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="38">
         <v>7</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="11" customFormat="1" ht="30" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="5">
+    <row r="26" s="20" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="38">
         <v>8</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="11" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="7">
+    <row r="27" s="20" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="39">
         <v>9</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="11" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="34" t="s">
+    <row r="28" s="20" customFormat="1" ht="29.1" customHeight="1" spans="1:4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="37">
         <v>10</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="11" customFormat="1" ht="27" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="5">
+    <row r="29" s="20" customFormat="1" ht="27" customHeight="1" spans="1:4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="38">
         <v>11</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="11" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="7">
+    <row r="30" s="20" customFormat="1" ht="29.1" customHeight="1" spans="1:4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="39">
         <v>12</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="11" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="34" t="s">
+    <row r="31" s="20" customFormat="1" ht="30.95" customHeight="1" spans="1:4">
+      <c r="A31" s="5"/>
+      <c r="B31" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="37">
         <v>13</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="11" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="5">
+    <row r="32" s="20" customFormat="1" ht="32.1" customHeight="1" spans="1:4">
+      <c r="A32" s="5"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="38">
         <v>14</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="11" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="7">
+    <row r="33" s="20" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="39">
         <v>15</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="11" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="9" t="s">
+    <row r="34" s="20" customFormat="1" ht="27" customHeight="1" spans="1:4">
+      <c r="A34" s="5"/>
+      <c r="B34" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="7">
         <v>16</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="11" customFormat="1" ht="30" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-    </row>
-    <row r="36" spans="1:4" s="11" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="22"/>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" customHeight="1">
-      <c r="C37" s="22"/>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" customHeight="1">
-      <c r="C38" s="22"/>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" customHeight="1">
-      <c r="C39" s="22"/>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" customHeight="1">
-      <c r="C40" s="22"/>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" customHeight="1">
-      <c r="C41" s="22"/>
+    <row r="35" s="20" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+    </row>
+    <row r="36" s="20" customFormat="1" ht="29.1" customHeight="1" spans="1:3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="40"/>
+    </row>
+    <row r="37" customHeight="1" spans="3:3">
+      <c r="C37" s="40"/>
+    </row>
+    <row r="38" customHeight="1" spans="3:3">
+      <c r="C38" s="40"/>
+    </row>
+    <row r="39" customHeight="1" spans="3:3">
+      <c r="C39" s="40"/>
+    </row>
+    <row r="40" customHeight="1" spans="3:3">
+      <c r="C40" s="40"/>
+    </row>
+    <row r="41" customHeight="1" spans="3:3">
+      <c r="C41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1156,233 +1836,372 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="109.75" customWidth="1"/>
+    <col min="5" max="5" width="20.725" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45.95" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" ht="45.95" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="31" t="s">
+      <c r="E1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="5">
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="5">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="33"/>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="7">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="31" t="s">
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="5">
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="5">
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="7">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="5">
+      <c r="D8" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="7">
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="33"/>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="7">
         <v>9</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="34" t="s">
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C12" s="7">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="5">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="36"/>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="7">
         <v>12</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="7">
+        <v>13</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="34" t="s">
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="3">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C15" s="7">
+        <v>14</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="5">
-        <v>14</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="36"/>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="7">
         <v>15</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="7">
+        <v>16</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="9" t="s">
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="10">
-        <v>16</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C18" s="7">
+        <v>17</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="19" customHeight="1" spans="2:5">
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="7">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:5">
+      <c r="C20" s="7">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" customHeight="1" spans="3:5">
+      <c r="C21" s="7">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" customHeight="1" spans="3:5">
+      <c r="C22" s="7">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" customHeight="1" spans="3:5">
+      <c r="C23" s="7">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" customHeight="1" spans="3:5">
+      <c r="C24" s="7">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" customHeight="1" spans="2:5">
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="7">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" ht="35" customHeight="1" spans="3:5">
+      <c r="C26" s="7">
+        <v>25</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" customHeight="1" spans="3:5">
+      <c r="C27" s="7">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" customHeight="1" spans="3:5">
+      <c r="C28" s="7">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" customHeight="1" spans="3:5">
+      <c r="C29" s="7">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" customHeight="1" spans="3:5">
+      <c r="C30" s="7">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A17"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A18"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="E25:E30"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/策划文档/养成系统.xlsx
+++ b/策划文档/养成系统.xlsx
@@ -409,7 +409,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,12 +484,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -599,12 +593,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,74 +919,74 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,12 +1026,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1118,9 +1100,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1441,19 +1420,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="21"/>
-    <col min="2" max="2" width="9" style="22"/>
+    <col min="1" max="1" width="9" style="19"/>
+    <col min="2" max="2" width="9" style="20"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="57" customHeight="1" spans="1:4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" ht="32.1" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1462,164 +1441,164 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="18.6" customHeight="1" spans="1:4">
       <c r="A3" s="5"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="18.6" customHeight="1" spans="1:4">
       <c r="A4" s="5"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="18.6" customHeight="1" spans="1:4">
       <c r="A5" s="5"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="18.6" customHeight="1" spans="1:4">
       <c r="A6" s="5"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18.6" customHeight="1" spans="1:4">
       <c r="A7" s="5"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" ht="18.6" customHeight="1" spans="1:4">
       <c r="A8" s="5"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" ht="18.6" customHeight="1" spans="1:4">
       <c r="A9" s="5"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" ht="18.6" customHeight="1" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" ht="18.6" customHeight="1" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" ht="18.6" customHeight="1" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" ht="18.6" customHeight="1" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="34" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" ht="18.6" customHeight="1" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" ht="18.6" customHeight="1" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" ht="18.6" customHeight="1" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" s="20" customFormat="1" customHeight="1" spans="1:4">
+    <row r="18" s="18" customFormat="1" customHeight="1" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1629,167 +1608,167 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" s="20" customFormat="1" ht="33" customHeight="1" spans="1:4">
+    <row r="19" s="18" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="35">
         <v>1</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" s="20" customFormat="1" ht="27" customHeight="1" spans="1:4">
+    <row r="20" s="18" customFormat="1" ht="27" customHeight="1" spans="1:4">
       <c r="A20" s="5"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="38">
+      <c r="C20" s="36">
         <v>2</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" s="20" customFormat="1" ht="33" customHeight="1" spans="1:4">
+    <row r="21" s="18" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A21" s="5"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="38">
+      <c r="C21" s="36">
         <v>3</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" s="20" customFormat="1" ht="33" customHeight="1" spans="1:4">
+    <row r="22" s="18" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A22" s="5"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="39">
+      <c r="C22" s="37">
         <v>4</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" s="20" customFormat="1" ht="27" customHeight="1" spans="1:4">
+    <row r="23" s="18" customFormat="1" ht="27" customHeight="1" spans="1:4">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="35">
         <v>5</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" s="20" customFormat="1" ht="27" customHeight="1" spans="1:4">
+    <row r="24" s="18" customFormat="1" ht="27" customHeight="1" spans="1:4">
       <c r="A24" s="5"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="38">
+      <c r="C24" s="36">
         <v>6</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" s="20" customFormat="1" ht="40.5" spans="1:4">
+    <row r="25" s="18" customFormat="1" ht="40.5" spans="1:4">
       <c r="A25" s="5"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="38">
+      <c r="C25" s="36">
         <v>7</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" s="20" customFormat="1" ht="30" customHeight="1" spans="1:4">
+    <row r="26" s="18" customFormat="1" ht="30" customHeight="1" spans="1:4">
       <c r="A26" s="5"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="38">
+      <c r="C26" s="36">
         <v>8</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" s="20" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
+    <row r="27" s="18" customFormat="1" ht="39.95" customHeight="1" spans="1:4">
       <c r="A27" s="5"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="39">
+      <c r="C27" s="37">
         <v>9</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" s="20" customFormat="1" ht="29.1" customHeight="1" spans="1:4">
+    <row r="28" s="18" customFormat="1" ht="29.1" customHeight="1" spans="1:4">
       <c r="A28" s="5"/>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="35">
         <v>10</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" s="20" customFormat="1" ht="27" customHeight="1" spans="1:4">
+    <row r="29" s="18" customFormat="1" ht="27" customHeight="1" spans="1:4">
       <c r="A29" s="5"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="38">
+      <c r="B29" s="14"/>
+      <c r="C29" s="36">
         <v>11</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" s="20" customFormat="1" ht="29.1" customHeight="1" spans="1:4">
+    <row r="30" s="18" customFormat="1" ht="29.1" customHeight="1" spans="1:4">
       <c r="A30" s="5"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="39">
+      <c r="B30" s="15"/>
+      <c r="C30" s="37">
         <v>12</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" s="20" customFormat="1" ht="30.95" customHeight="1" spans="1:4">
+    <row r="31" s="18" customFormat="1" ht="30.95" customHeight="1" spans="1:4">
       <c r="A31" s="5"/>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="35">
         <v>13</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" s="20" customFormat="1" ht="32.1" customHeight="1" spans="1:4">
+    <row r="32" s="18" customFormat="1" ht="32.1" customHeight="1" spans="1:4">
       <c r="A32" s="5"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="38">
+      <c r="B32" s="14"/>
+      <c r="C32" s="36">
         <v>14</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" s="20" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
+    <row r="33" s="18" customFormat="1" ht="27.95" customHeight="1" spans="1:4">
       <c r="A33" s="5"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="39">
+      <c r="B33" s="15"/>
+      <c r="C33" s="37">
         <v>15</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" s="20" customFormat="1" ht="27" customHeight="1" spans="1:4">
+    <row r="34" s="18" customFormat="1" ht="27" customHeight="1" spans="1:4">
       <c r="A34" s="5"/>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="7">
@@ -1799,29 +1778,29 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" s="20" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
-    </row>
-    <row r="36" s="20" customFormat="1" ht="29.1" customHeight="1" spans="1:3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="40"/>
+    <row r="35" s="18" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+    </row>
+    <row r="36" s="18" customFormat="1" ht="29.1" customHeight="1" spans="1:3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" customHeight="1" spans="3:3">
-      <c r="C37" s="40"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="38" customHeight="1" spans="3:3">
-      <c r="C38" s="40"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39" customHeight="1" spans="3:3">
-      <c r="C39" s="40"/>
+      <c r="C39" s="17"/>
     </row>
     <row r="40" customHeight="1" spans="3:3">
-      <c r="C40" s="40"/>
+      <c r="C40" s="17"/>
     </row>
     <row r="41" customHeight="1" spans="3:3">
-      <c r="C41" s="40"/>
+      <c r="C41" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1847,8 +1826,8 @@
   <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
@@ -1961,11 +1940,11 @@
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="5"/>
-      <c r="B10" s="13"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="7">
         <v>9</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1981,7 +1960,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="5"/>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="7">
@@ -1993,7 +1972,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="5"/>
-      <c r="B13" s="16"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="7">
         <v>12</v>
       </c>
@@ -2003,7 +1982,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="5"/>
-      <c r="B14" s="17"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="7">
         <v>13</v>
       </c>
@@ -2013,7 +1992,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="5"/>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="7">
@@ -2025,7 +2004,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="5"/>
-      <c r="B16" s="16"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="7">
         <v>15</v>
       </c>
@@ -2035,7 +2014,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="5"/>
-      <c r="B17" s="17"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="7">
         <v>16</v>
       </c>
@@ -2045,7 +2024,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="5"/>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="7">
@@ -2065,7 +2044,7 @@
       <c r="D19" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2076,7 +2055,7 @@
       <c r="D20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" customHeight="1" spans="3:5">
       <c r="C21" s="7">
@@ -2085,7 +2064,7 @@
       <c r="D21" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="18"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" customHeight="1" spans="3:5">
       <c r="C22" s="7">
@@ -2094,7 +2073,7 @@
       <c r="D22" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" customHeight="1" spans="3:5">
       <c r="C23" s="7">
@@ -2103,7 +2082,7 @@
       <c r="D23" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" customHeight="1" spans="3:5">
       <c r="C24" s="7">
@@ -2112,7 +2091,7 @@
       <c r="D24" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" customHeight="1" spans="2:5">
       <c r="B25" t="s">
@@ -2124,7 +2103,7 @@
       <c r="D25" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2132,10 +2111,10 @@
       <c r="C26" s="7">
         <v>25</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" customHeight="1" spans="3:5">
       <c r="C27" s="7">
@@ -2144,7 +2123,7 @@
       <c r="D27" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" customHeight="1" spans="3:5">
       <c r="C28" s="7">
@@ -2153,7 +2132,7 @@
       <c r="D28" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="18"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" customHeight="1" spans="3:5">
       <c r="C29" s="7">
@@ -2162,7 +2141,7 @@
       <c r="D29" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="18"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" customHeight="1" spans="3:5">
       <c r="C30" s="7">
@@ -2171,7 +2150,7 @@
       <c r="D30" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/策划文档/养成系统.xlsx
+++ b/策划文档/养成系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="16185" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1827,7 +1827,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
